--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,6 +398,132 @@
         <v>2.7</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Brevemente</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>43594.66925028837</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>123344</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sobremesas</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome: Haagen-Dazs Strawb. Cheesecake; </t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>F80625_1557414803</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>43594.67597494539</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sobremesas</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome: Haagen-Dazs Strawb. Cheesecake; </t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.100000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>F61771_1557414909</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>43594.67719713803</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sobremesas</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome: Haagen-Dazs Strawb. Cheesecake; </t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
